--- a/medicine/Enfance/Eliot_Schrefer/Eliot_Schrefer.xlsx
+++ b/medicine/Enfance/Eliot_Schrefer/Eliot_Schrefer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliot Schrefer, né le 25 novembre 1978 à Chicago dans l'Illinois, est un romancier américain de littérature d'enfance et de jeunesse.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,24 +553,172 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série The Ape Quartet
-(en) Endangered, 2012
+          <t>Série The Ape Quartet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Endangered, 2012
 (en) Threatened, 2014
 (en) Rescued, 2016
-(en) Orphaned, 2018
-Série The Lost Rainforest
-(en) Mez's Magic, 2018
+(en) Orphaned, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eliot_Schrefer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eliot_Schrefer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série The Lost Rainforest</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Mez's Magic, 2018
 (en) Gogi's Gambit, 2019
-(en) Rumi's Riddle, 2020
-Univers Animal Tatoo
-Série Animal Tatoo
-Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Garth Nix et Sean Williams (tome 3), Shannon Hale (tome 4), Tui Sutherland (tome 5) et Marie Lu (tome 7).
- La Chute, Bayard, 2016 ((en) Rise and Fall, 2014)
-Série Les Bêtes suprêmes (Animal tatoo saison 2)
-Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : V. E. Schwab (tome 2), Varian Johnson (en) (tomes 3 et 6), Jonathan Auxier (en) (tome 4), Sarah Prineas (en) (tome 5), Christina Diaz Gonzalez (tome 7) et Sarwat Chadda (tome 8).
-Gardiens immortels, Bayard, 2017 ((en) Immortal Guardians, 2015), trad. Anath Riveline
-Romans indépendants
-(en) Glamorous Disasters, 2006
+(en) Rumi's Riddle, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eliot_Schrefer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eliot_Schrefer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers Animal Tatoo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Animal Tatoo</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Garth Nix et Sean Williams (tome 3), Shannon Hale (tome 4), Tui Sutherland (tome 5) et Marie Lu (tome 7).
+ La Chute, Bayard, 2016 ((en) Rise and Fall, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eliot_Schrefer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eliot_Schrefer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Animal Tatoo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Les Bêtes suprêmes (Animal tatoo saison 2)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : V. E. Schwab (tome 2), Varian Johnson (en) (tomes 3 et 6), Jonathan Auxier (en) (tome 4), Sarah Prineas (en) (tome 5), Christina Diaz Gonzalez (tome 7) et Sarwat Chadda (tome 8).
+Gardiens immortels, Bayard, 2017 ((en) Immortal Guardians, 2015), trad. Anath Riveline</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eliot_Schrefer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eliot_Schrefer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Glamorous Disasters, 2006
 (en) The New Kid, 2007
 (en) Hack the SAT, 2008
 (en) The School for Dangerous Girls, 2009
